--- a/Semantic Model Dialog.xlsx
+++ b/Semantic Model Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/hor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/NikyClean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05B31E3F-E07C-B84D-994A-A0967F467D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49091AD-E596-8943-A817-5C50D4AD627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17680" yWindow="-21100" windowWidth="38080" windowHeight="19640" xr2:uid="{8844492C-97B8-484C-9AB0-2706B3FC86B7}"/>
+    <workbookView xWindow="-37440" yWindow="580" windowWidth="38400" windowHeight="19620" xr2:uid="{8844492C-97B8-484C-9AB0-2706B3FC86B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,13 +91,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -113,7 +113,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5219700" y="660400"/>
+          <a:off x="5219700" y="2057400"/>
           <a:ext cx="355600" cy="1397000"/>
           <a:chOff x="5588000" y="596900"/>
           <a:chExt cx="355600" cy="1397000"/>
@@ -330,13 +330,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -392,13 +392,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -454,7 +454,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2133600" cy="596900"/>
@@ -518,7 +518,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="863600" cy="342851"/>
@@ -576,7 +576,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="863600" cy="342851"/>
@@ -643,13 +643,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>236693</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -665,7 +665,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4051300" y="3581400"/>
+          <a:off x="4051300" y="4978400"/>
           <a:ext cx="2603500" cy="1405093"/>
           <a:chOff x="4089400" y="3098800"/>
           <a:chExt cx="2603500" cy="1405093"/>
@@ -825,13 +825,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -886,7 +886,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1612900" cy="468077"/>
@@ -957,13 +957,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1018,7 +1018,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1612900" cy="468077"/>
@@ -1089,13 +1089,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>249393</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1111,7 +1111,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8407400" y="3556000"/>
+          <a:off x="8407400" y="4953000"/>
           <a:ext cx="2603500" cy="1443193"/>
           <a:chOff x="8407400" y="3086100"/>
           <a:chExt cx="2603500" cy="1443193"/>
@@ -1272,13 +1272,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1294,7 +1294,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9550400" y="711200"/>
+          <a:off x="9550400" y="2108200"/>
           <a:ext cx="355600" cy="1397000"/>
           <a:chOff x="5588000" y="596900"/>
           <a:chExt cx="355600" cy="1397000"/>
@@ -1511,13 +1511,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1571,13 +1571,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1631,13 +1631,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1008383</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>12701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>63504</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>266701</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1691,13 +1691,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1016001</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>71122</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1751,13 +1751,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028703</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>58424</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1811,13 +1811,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1054101</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83822</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1862,6 +1862,146 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186716</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>198452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1063016</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="U-Turn Arrow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A023C6-F08A-83CA-2FFE-1294302EDB2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10609226" y="4482542"/>
+          <a:ext cx="1621280" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 3535"/>
+            <a:gd name="adj3" fmla="val 22101"/>
+            <a:gd name="adj4" fmla="val 43750"/>
+            <a:gd name="adj5" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="U-Turn Arrow 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACC4456-8E82-554A-BBFC-BAF4021CA2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2743200" y="4597400"/>
+          <a:ext cx="1765300" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 3535"/>
+            <a:gd name="adj3" fmla="val 22101"/>
+            <a:gd name="adj4" fmla="val 43750"/>
+            <a:gd name="adj5" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2187,14 +2327,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A49E4C-B746-C848-AA38-6BDF81DF908E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:M17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
